--- a/Gezamelijk - Documentatie/Sjabloon planning.xlsx
+++ b/Gezamelijk - Documentatie/Sjabloon planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grkoh\OneDrive\Bureaublad\school\leerjaar-4\Examen\Examenvoorbereiding\Sjablonen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ExamenOpdracht\Gezamelijk - Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D0E90-9018-4007-A4CE-A44DFA680211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20B64D7-0EEE-4C03-AF87-CB38E19BE33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Backlog</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Misschien trello aanmaken?</t>
+  </si>
+  <si>
+    <t>plan van aanpak maken</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
   <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,6 +849,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -856,21 +864,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E5A2E5C70C7C834D89F4C3B1CDE8BE1C" ma:contentTypeVersion="3" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="70184c1912e040a8dde644796a7800ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b257201-778e-453b-aa66-cfc6f3785f8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a6d62f7c79aef665a321ed9d426da3c" ns2:_="">
     <xsd:import namespace="9b257201-778e-453b-aa66-cfc6f3785f8a"/>
@@ -1008,10 +1001,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8E8780-CEDA-4C77-BC76-54BA49B01759}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56CD3790-9B1D-4851-ADB1-2C8F9BB289FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9b257201-778e-453b-aa66-cfc6f3785f8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1034,19 +1052,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56CD3790-9B1D-4851-ADB1-2C8F9BB289FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8E8780-CEDA-4C77-BC76-54BA49B01759}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9b257201-778e-453b-aa66-cfc6f3785f8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Gezamelijk - Documentatie/Sjabloon planning.xlsx
+++ b/Gezamelijk - Documentatie/Sjabloon planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ExamenOpdracht\Gezamelijk - Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20B64D7-0EEE-4C03-AF87-CB38E19BE33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41C8454-735D-4EEC-B576-723710587FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Backlog</t>
   </si>
@@ -97,7 +97,13 @@
     <t>Misschien trello aanmaken?</t>
   </si>
   <si>
-    <t>plan van aanpak maken</t>
+    <t>Plan van aanpak maken</t>
+  </si>
+  <si>
+    <t>Bestanden beschikbaar maken</t>
+  </si>
+  <si>
+    <t>Epics bedenken</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
   <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,6 +860,16 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -864,6 +880,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E5A2E5C70C7C834D89F4C3B1CDE8BE1C" ma:contentTypeVersion="3" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="70184c1912e040a8dde644796a7800ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b257201-778e-453b-aa66-cfc6f3785f8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a6d62f7c79aef665a321ed9d426da3c" ns2:_="">
     <xsd:import namespace="9b257201-778e-453b-aa66-cfc6f3785f8a"/>
@@ -1001,35 +1032,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56CD3790-9B1D-4851-ADB1-2C8F9BB289FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8E8780-CEDA-4C77-BC76-54BA49B01759}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9b257201-778e-453b-aa66-cfc6f3785f8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1052,9 +1058,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8E8780-CEDA-4C77-BC76-54BA49B01759}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56CD3790-9B1D-4851-ADB1-2C8F9BB289FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9b257201-778e-453b-aa66-cfc6f3785f8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>